--- a/Sales data by pivot table.xlsx
+++ b/Sales data by pivot table.xlsx
@@ -16,8 +16,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId4"/>
-    <pivotCache cacheId="35" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -566,7 +566,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -663,12 +663,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,13 +678,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -703,7 +704,79 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="31">
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" indent="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1424,7 +1497,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1761,7 +1833,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5364,7 +5435,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -5386,7 +5457,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="35" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Region" colHeaderCaption="Item labels">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable13" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" missingCaption="0" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Region" colHeaderCaption="Item labels">
   <location ref="A5:G32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
@@ -5655,6 +5726,251 @@
   <dataFields count="1">
     <dataField name="Sum of Units" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="24">
+    <format dxfId="23">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="10">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="10"/>
+            <x v="14"/>
+            <x v="16"/>
+            <x v="19"/>
+            <x v="20"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="10">
+            <x v="0"/>
+            <x v="5"/>
+            <x v="9"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="15"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="21"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="2">
+            <x v="4"/>
+            <x v="8"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="10">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="10"/>
+            <x v="14"/>
+            <x v="16"/>
+            <x v="19"/>
+            <x v="20"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="10">
+            <x v="0"/>
+            <x v="5"/>
+            <x v="9"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="15"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="21"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="2">
+            <x v="4"/>
+            <x v="8"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="2" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="10">
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="10"/>
+            <x v="14"/>
+            <x v="16"/>
+            <x v="19"/>
+            <x v="20"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="10">
+            <x v="0"/>
+            <x v="5"/>
+            <x v="9"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="15"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="21"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="2">
+            <x v="4"/>
+            <x v="8"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight15" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5936,94 +6252,94 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6035,21 +6351,18 @@
   <dimension ref="A3:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="4" previousRow="4" click="2" r:id="rId1">
-        <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-      </pivotSelection>
+      <selection activeCell="A7" sqref="A7:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" customWidth="1"/>
     <col min="10" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
@@ -6088,639 +6401,658 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="47" t="s">
         <v>52</v>
       </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="49" t="s">
         <v>55</v>
       </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="47" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="48">
         <v>78</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="48">
         <v>2</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="48">
         <v>27</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="48">
         <v>96</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="48">
         <v>358</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="48">
         <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="50">
+      <c r="A8" s="47">
         <v>2</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="48">
         <v>50</v>
       </c>
-      <c r="C8" s="49">
-        <v>0</v>
-      </c>
-      <c r="D8" s="49">
-        <v>0</v>
-      </c>
-      <c r="E8" s="49">
-        <v>0</v>
-      </c>
-      <c r="F8" s="49">
-        <v>0</v>
-      </c>
-      <c r="G8" s="49">
+      <c r="C8" s="48">
+        <v>0</v>
+      </c>
+      <c r="D8" s="48">
+        <v>0</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="50">
+      <c r="A9" s="47">
         <v>3</v>
       </c>
-      <c r="B9" s="49">
-        <v>0</v>
-      </c>
-      <c r="C9" s="49">
-        <v>0</v>
-      </c>
-      <c r="D9" s="49">
-        <v>0</v>
-      </c>
-      <c r="E9" s="49">
-        <v>0</v>
-      </c>
-      <c r="F9" s="49">
+      <c r="B9" s="48">
+        <v>0</v>
+      </c>
+      <c r="C9" s="48">
+        <v>0</v>
+      </c>
+      <c r="D9" s="48">
+        <v>0</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48">
         <v>36</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="50">
+      <c r="A10" s="47">
         <v>4</v>
       </c>
-      <c r="B10" s="49">
-        <v>0</v>
-      </c>
-      <c r="C10" s="49">
-        <v>0</v>
-      </c>
-      <c r="D10" s="49">
+      <c r="B10" s="48">
+        <v>0</v>
+      </c>
+      <c r="C10" s="48">
+        <v>0</v>
+      </c>
+      <c r="D10" s="48">
         <v>27</v>
       </c>
-      <c r="E10" s="49">
-        <v>0</v>
-      </c>
-      <c r="F10" s="49">
-        <v>0</v>
-      </c>
-      <c r="G10" s="49">
+      <c r="E10" s="48">
+        <v>0</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="50">
+      <c r="A11" s="47">
         <v>7</v>
       </c>
-      <c r="B11" s="49">
-        <v>0</v>
-      </c>
-      <c r="C11" s="49">
-        <v>0</v>
-      </c>
-      <c r="D11" s="49">
-        <v>0</v>
-      </c>
-      <c r="E11" s="49">
-        <v>0</v>
-      </c>
-      <c r="F11" s="49">
+      <c r="B11" s="48">
+        <v>0</v>
+      </c>
+      <c r="C11" s="48">
+        <v>0</v>
+      </c>
+      <c r="D11" s="48">
+        <v>0</v>
+      </c>
+      <c r="E11" s="48">
+        <v>0</v>
+      </c>
+      <c r="F11" s="48">
         <v>75</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="50">
+      <c r="A12" s="47">
         <v>8</v>
       </c>
-      <c r="B12" s="49">
-        <v>0</v>
-      </c>
-      <c r="C12" s="49">
-        <v>0</v>
-      </c>
-      <c r="D12" s="49">
-        <v>0</v>
-      </c>
-      <c r="E12" s="49">
-        <v>0</v>
-      </c>
-      <c r="F12" s="49">
+      <c r="B12" s="48">
+        <v>0</v>
+      </c>
+      <c r="C12" s="48">
+        <v>0</v>
+      </c>
+      <c r="D12" s="48">
+        <v>0</v>
+      </c>
+      <c r="E12" s="48">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
         <v>90</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="48">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="50">
+      <c r="A13" s="47">
         <v>11</v>
       </c>
-      <c r="B13" s="49">
-        <v>0</v>
-      </c>
-      <c r="C13" s="49">
-        <v>0</v>
-      </c>
-      <c r="D13" s="49">
-        <v>0</v>
-      </c>
-      <c r="E13" s="49">
-        <v>0</v>
-      </c>
-      <c r="F13" s="49">
+      <c r="B13" s="48">
+        <v>0</v>
+      </c>
+      <c r="C13" s="48">
+        <v>0</v>
+      </c>
+      <c r="D13" s="48">
+        <v>0</v>
+      </c>
+      <c r="E13" s="48">
+        <v>0</v>
+      </c>
+      <c r="F13" s="48">
         <v>90</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="50">
+      <c r="A14" s="47">
         <v>15</v>
       </c>
-      <c r="B14" s="49">
-        <v>0</v>
-      </c>
-      <c r="C14" s="49">
+      <c r="B14" s="48">
+        <v>0</v>
+      </c>
+      <c r="C14" s="48">
         <v>2</v>
       </c>
-      <c r="D14" s="49">
-        <v>0</v>
-      </c>
-      <c r="E14" s="49">
-        <v>0</v>
-      </c>
-      <c r="F14" s="49">
-        <v>0</v>
-      </c>
-      <c r="G14" s="49">
+      <c r="D14" s="48">
+        <v>0</v>
+      </c>
+      <c r="E14" s="48">
+        <v>0</v>
+      </c>
+      <c r="F14" s="48">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="50">
+      <c r="A15" s="47">
         <v>17</v>
       </c>
-      <c r="B15" s="49">
+      <c r="B15" s="48">
         <v>28</v>
       </c>
-      <c r="C15" s="49">
-        <v>0</v>
-      </c>
-      <c r="D15" s="49">
-        <v>0</v>
-      </c>
-      <c r="E15" s="49">
-        <v>0</v>
-      </c>
-      <c r="F15" s="49">
-        <v>0</v>
-      </c>
-      <c r="G15" s="49">
+      <c r="C15" s="48">
+        <v>0</v>
+      </c>
+      <c r="D15" s="48">
+        <v>0</v>
+      </c>
+      <c r="E15" s="48">
+        <v>0</v>
+      </c>
+      <c r="F15" s="48">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="50">
+      <c r="A16" s="47">
         <v>20</v>
       </c>
-      <c r="B16" s="49">
-        <v>0</v>
-      </c>
-      <c r="C16" s="49">
-        <v>0</v>
-      </c>
-      <c r="D16" s="49">
-        <v>0</v>
-      </c>
-      <c r="E16" s="49">
+      <c r="B16" s="48">
+        <v>0</v>
+      </c>
+      <c r="C16" s="48">
+        <v>0</v>
+      </c>
+      <c r="D16" s="48">
+        <v>0</v>
+      </c>
+      <c r="E16" s="48">
         <v>96</v>
       </c>
-      <c r="F16" s="49">
-        <v>0</v>
-      </c>
-      <c r="G16" s="49">
+      <c r="F16" s="48">
+        <v>0</v>
+      </c>
+      <c r="G16" s="48">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="50">
+      <c r="A17" s="47">
         <v>21</v>
       </c>
-      <c r="B17" s="49">
-        <v>0</v>
-      </c>
-      <c r="C17" s="49">
-        <v>0</v>
-      </c>
-      <c r="D17" s="49">
-        <v>0</v>
-      </c>
-      <c r="E17" s="49">
-        <v>0</v>
-      </c>
-      <c r="F17" s="49">
+      <c r="B17" s="48">
+        <v>0</v>
+      </c>
+      <c r="C17" s="48">
+        <v>0</v>
+      </c>
+      <c r="D17" s="48">
+        <v>0</v>
+      </c>
+      <c r="E17" s="48">
+        <v>0</v>
+      </c>
+      <c r="F17" s="48">
         <v>67</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="48">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="49">
+      <c r="B18" s="48">
         <v>230</v>
       </c>
-      <c r="C18" s="49">
-        <v>0</v>
-      </c>
-      <c r="D18" s="49">
+      <c r="C18" s="48">
+        <v>0</v>
+      </c>
+      <c r="D18" s="48">
         <v>79</v>
       </c>
-      <c r="E18" s="49">
+      <c r="E18" s="48">
         <v>90</v>
       </c>
-      <c r="F18" s="49">
+      <c r="F18" s="48">
         <v>130</v>
       </c>
-      <c r="G18" s="49">
+      <c r="G18" s="48">
         <v>529</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="50">
+      <c r="A19" s="47">
         <v>1</v>
       </c>
-      <c r="B19" s="49">
-        <v>0</v>
-      </c>
-      <c r="C19" s="49">
-        <v>0</v>
-      </c>
-      <c r="D19" s="49">
-        <v>0</v>
-      </c>
-      <c r="E19" s="49">
-        <v>0</v>
-      </c>
-      <c r="F19" s="49">
+      <c r="B19" s="48">
+        <v>0</v>
+      </c>
+      <c r="C19" s="48">
+        <v>0</v>
+      </c>
+      <c r="D19" s="48">
+        <v>0</v>
+      </c>
+      <c r="E19" s="48">
+        <v>0</v>
+      </c>
+      <c r="F19" s="48">
         <v>95</v>
       </c>
-      <c r="G19" s="49">
+      <c r="G19" s="48">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="50">
+      <c r="A20" s="47">
         <v>6</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>60</v>
       </c>
-      <c r="C20" s="49">
-        <v>0</v>
-      </c>
-      <c r="D20" s="49">
-        <v>0</v>
-      </c>
-      <c r="E20" s="49">
-        <v>0</v>
-      </c>
-      <c r="F20" s="49">
-        <v>0</v>
-      </c>
-      <c r="G20" s="49">
+      <c r="C20" s="48">
+        <v>0</v>
+      </c>
+      <c r="D20" s="48">
+        <v>0</v>
+      </c>
+      <c r="E20" s="48">
+        <v>0</v>
+      </c>
+      <c r="F20" s="48">
+        <v>0</v>
+      </c>
+      <c r="G20" s="48">
         <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="50">
+      <c r="A21" s="47">
         <v>10</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="48">
         <v>60</v>
       </c>
-      <c r="C21" s="49">
-        <v>0</v>
-      </c>
-      <c r="D21" s="49">
-        <v>0</v>
-      </c>
-      <c r="E21" s="49">
-        <v>0</v>
-      </c>
-      <c r="F21" s="49">
-        <v>0</v>
-      </c>
-      <c r="G21" s="49">
+      <c r="C21" s="48">
+        <v>0</v>
+      </c>
+      <c r="D21" s="48">
+        <v>0</v>
+      </c>
+      <c r="E21" s="48">
+        <v>0</v>
+      </c>
+      <c r="F21" s="48">
+        <v>0</v>
+      </c>
+      <c r="G21" s="48">
         <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="50">
+      <c r="A22" s="47">
         <v>12</v>
       </c>
-      <c r="B22" s="49">
+      <c r="B22" s="48">
         <v>29</v>
       </c>
-      <c r="C22" s="49">
-        <v>0</v>
-      </c>
-      <c r="D22" s="49">
-        <v>0</v>
-      </c>
-      <c r="E22" s="49">
-        <v>0</v>
-      </c>
-      <c r="F22" s="49">
-        <v>0</v>
-      </c>
-      <c r="G22" s="49">
+      <c r="C22" s="48">
+        <v>0</v>
+      </c>
+      <c r="D22" s="48">
+        <v>0</v>
+      </c>
+      <c r="E22" s="48">
+        <v>0</v>
+      </c>
+      <c r="F22" s="48">
+        <v>0</v>
+      </c>
+      <c r="G22" s="48">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="50">
+      <c r="A23" s="47">
         <v>13</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="48">
         <v>81</v>
       </c>
-      <c r="C23" s="49">
-        <v>0</v>
-      </c>
-      <c r="D23" s="49">
-        <v>0</v>
-      </c>
-      <c r="E23" s="49">
-        <v>0</v>
-      </c>
-      <c r="F23" s="49">
-        <v>0</v>
-      </c>
-      <c r="G23" s="49">
+      <c r="C23" s="48">
+        <v>0</v>
+      </c>
+      <c r="D23" s="48">
+        <v>0</v>
+      </c>
+      <c r="E23" s="48">
+        <v>0</v>
+      </c>
+      <c r="F23" s="48">
+        <v>0</v>
+      </c>
+      <c r="G23" s="48">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="50">
+      <c r="A24" s="47">
         <v>14</v>
       </c>
-      <c r="B24" s="49">
-        <v>0</v>
-      </c>
-      <c r="C24" s="49">
-        <v>0</v>
-      </c>
-      <c r="D24" s="49">
-        <v>0</v>
-      </c>
-      <c r="E24" s="49">
-        <v>0</v>
-      </c>
-      <c r="F24" s="49">
+      <c r="B24" s="48">
+        <v>0</v>
+      </c>
+      <c r="C24" s="48">
+        <v>0</v>
+      </c>
+      <c r="D24" s="48">
+        <v>0</v>
+      </c>
+      <c r="E24" s="48">
+        <v>0</v>
+      </c>
+      <c r="F24" s="48">
         <v>35</v>
       </c>
-      <c r="G24" s="49">
+      <c r="G24" s="48">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="50">
+      <c r="A25" s="47">
         <v>16</v>
       </c>
-      <c r="B25" s="49">
-        <v>0</v>
-      </c>
-      <c r="C25" s="49">
-        <v>0</v>
-      </c>
-      <c r="D25" s="49">
-        <v>0</v>
-      </c>
-      <c r="E25" s="49">
+      <c r="B25" s="48">
+        <v>0</v>
+      </c>
+      <c r="C25" s="48">
+        <v>0</v>
+      </c>
+      <c r="D25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="48">
         <v>16</v>
       </c>
-      <c r="F25" s="49">
-        <v>0</v>
-      </c>
-      <c r="G25" s="49">
+      <c r="F25" s="48">
+        <v>0</v>
+      </c>
+      <c r="G25" s="48">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="50">
+      <c r="A26" s="47">
         <v>18</v>
       </c>
-      <c r="B26" s="49">
-        <v>0</v>
-      </c>
-      <c r="C26" s="49">
-        <v>0</v>
-      </c>
-      <c r="D26" s="49">
+      <c r="B26" s="48">
+        <v>0</v>
+      </c>
+      <c r="C26" s="48">
+        <v>0</v>
+      </c>
+      <c r="D26" s="48">
         <v>64</v>
       </c>
-      <c r="E26" s="49">
-        <v>0</v>
-      </c>
-      <c r="F26" s="49">
-        <v>0</v>
-      </c>
-      <c r="G26" s="49">
+      <c r="E26" s="48">
+        <v>0</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+      <c r="G26" s="48">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="47">
         <v>19</v>
       </c>
-      <c r="B27" s="49">
-        <v>0</v>
-      </c>
-      <c r="C27" s="49">
-        <v>0</v>
-      </c>
-      <c r="D27" s="49">
+      <c r="B27" s="48">
+        <v>0</v>
+      </c>
+      <c r="C27" s="48">
+        <v>0</v>
+      </c>
+      <c r="D27" s="48">
         <v>15</v>
       </c>
-      <c r="E27" s="49">
-        <v>0</v>
-      </c>
-      <c r="F27" s="49">
-        <v>0</v>
-      </c>
-      <c r="G27" s="49">
+      <c r="E27" s="48">
+        <v>0</v>
+      </c>
+      <c r="F27" s="48">
+        <v>0</v>
+      </c>
+      <c r="G27" s="48">
         <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="50">
+      <c r="A28" s="47">
         <v>22</v>
       </c>
-      <c r="B28" s="49">
-        <v>0</v>
-      </c>
-      <c r="C28" s="49">
-        <v>0</v>
-      </c>
-      <c r="D28" s="49">
-        <v>0</v>
-      </c>
-      <c r="E28" s="49">
+      <c r="B28" s="48">
+        <v>0</v>
+      </c>
+      <c r="C28" s="48">
+        <v>0</v>
+      </c>
+      <c r="D28" s="48">
+        <v>0</v>
+      </c>
+      <c r="E28" s="48">
         <v>74</v>
       </c>
-      <c r="F28" s="49">
-        <v>0</v>
-      </c>
-      <c r="G28" s="49">
+      <c r="F28" s="48">
+        <v>0</v>
+      </c>
+      <c r="G28" s="48">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="49">
-        <v>0</v>
-      </c>
-      <c r="C29" s="49">
-        <v>0</v>
-      </c>
-      <c r="D29" s="49">
-        <v>0</v>
-      </c>
-      <c r="E29" s="49">
-        <v>0</v>
-      </c>
-      <c r="F29" s="49">
+      <c r="B29" s="48">
+        <v>0</v>
+      </c>
+      <c r="C29" s="48">
+        <v>0</v>
+      </c>
+      <c r="D29" s="48">
+        <v>0</v>
+      </c>
+      <c r="E29" s="48">
+        <v>0</v>
+      </c>
+      <c r="F29" s="48">
         <v>88</v>
       </c>
-      <c r="G29" s="49">
+      <c r="G29" s="48">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="50">
+      <c r="A30" s="47">
         <v>5</v>
       </c>
-      <c r="B30" s="49">
-        <v>0</v>
-      </c>
-      <c r="C30" s="49">
-        <v>0</v>
-      </c>
-      <c r="D30" s="49">
-        <v>0</v>
-      </c>
-      <c r="E30" s="49">
-        <v>0</v>
-      </c>
-      <c r="F30" s="49">
+      <c r="B30" s="48">
+        <v>0</v>
+      </c>
+      <c r="C30" s="48">
+        <v>0</v>
+      </c>
+      <c r="D30" s="48">
+        <v>0</v>
+      </c>
+      <c r="E30" s="48">
+        <v>0</v>
+      </c>
+      <c r="F30" s="48">
         <v>56</v>
       </c>
-      <c r="G30" s="49">
+      <c r="G30" s="48">
         <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="50">
+      <c r="A31" s="47">
         <v>9</v>
       </c>
-      <c r="B31" s="49">
-        <v>0</v>
-      </c>
-      <c r="C31" s="49">
-        <v>0</v>
-      </c>
-      <c r="D31" s="49">
-        <v>0</v>
-      </c>
-      <c r="E31" s="49">
-        <v>0</v>
-      </c>
-      <c r="F31" s="49">
+      <c r="B31" s="48">
+        <v>0</v>
+      </c>
+      <c r="C31" s="48">
+        <v>0</v>
+      </c>
+      <c r="D31" s="48">
+        <v>0</v>
+      </c>
+      <c r="E31" s="48">
+        <v>0</v>
+      </c>
+      <c r="F31" s="48">
         <v>32</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="48">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="48">
         <v>308</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="48">
         <v>2</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="48">
         <v>106</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="48">
         <v>186</v>
       </c>
-      <c r="F32" s="49">
+      <c r="F32" s="48">
         <v>576</v>
       </c>
-      <c r="G32" s="49">
+      <c r="G32" s="48">
         <v>1178</v>
       </c>
     </row>
@@ -7206,10 +7538,10 @@
       <c r="H15" s="5">
         <v>174.65</v>
       </c>
-      <c r="M15" s="34" t="s">
+      <c r="M15" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="35"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
@@ -7743,10 +8075,10 @@
       <c r="H32" s="5">
         <v>719.2</v>
       </c>
-      <c r="J32" s="34" t="s">
+      <c r="J32" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="35"/>
+      <c r="K32" s="46"/>
     </row>
     <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -7825,7 +8157,7 @@
       <c r="H35" s="5">
         <v>686.95</v>
       </c>
-      <c r="J35" s="36" t="s">
+      <c r="J35" s="34" t="s">
         <v>49</v>
       </c>
       <c r="K35" s="19">
@@ -7858,7 +8190,7 @@
       <c r="H36" s="5">
         <v>1005.9</v>
       </c>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="35" t="s">
         <v>50</v>
       </c>
       <c r="K36" s="19">
@@ -8085,30 +8417,30 @@
     <mergeCell ref="M15:N15"/>
   </mergeCells>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Pencil Units:">
+    <cfRule type="containsText" dxfId="30" priority="11" operator="containsText" text="Pencil Units:">
       <formula>NOT(ISERROR(SEARCH("Pencil Units:",J10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Pen units:">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="Pen units:">
       <formula>NOT(ISERROR(SEARCH("Pen units:",J11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="Pen units:">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="Pen units:">
       <formula>NOT(ISERROR(SEARCH("Pen units:",J11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="Desk units:">
+    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Desk units:">
       <formula>NOT(ISERROR(SEARCH("Desk units:",J13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Pen Set units:">
+    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="Pen Set units:">
       <formula>NOT(ISERROR(SEARCH("Pen Set units:",J12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="Binder units:">
+    <cfRule type="containsText" dxfId="25" priority="6" operator="containsText" text="Binder units:">
       <formula>NOT(ISERROR(SEARCH("Binder units:",J14)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8127,7 +8459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Sales in West:">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Sales in West:">
       <formula>NOT(ISERROR(SEARCH("Sales in West:",M11)))</formula>
     </cfRule>
   </conditionalFormatting>
